--- a/Code/Results/Cases/Case_3_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.985702522412272</v>
+        <v>1.014410119015922</v>
       </c>
       <c r="D2">
-        <v>1.00578778042512</v>
+        <v>1.021025038497922</v>
       </c>
       <c r="E2">
-        <v>0.9941556971036419</v>
+        <v>1.016204316641466</v>
       </c>
       <c r="F2">
-        <v>0.9599275389639013</v>
+        <v>1.030948338201141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035224186900403</v>
+        <v>1.027450432843899</v>
       </c>
       <c r="J2">
-        <v>1.008319443269186</v>
+        <v>1.019641515837839</v>
       </c>
       <c r="K2">
-        <v>1.017167066907213</v>
+        <v>1.023863588861564</v>
       </c>
       <c r="L2">
-        <v>1.00569705733181</v>
+        <v>1.019057185547152</v>
       </c>
       <c r="M2">
-        <v>0.9719748924174925</v>
+        <v>1.033757872672202</v>
       </c>
       <c r="N2">
-        <v>1.006816489973039</v>
+        <v>1.010671207227263</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9894952914017069</v>
+        <v>1.015207564669389</v>
       </c>
       <c r="D3">
-        <v>1.008465507225557</v>
+        <v>1.021596797218632</v>
       </c>
       <c r="E3">
-        <v>0.9971147159509639</v>
+        <v>1.016876292130557</v>
       </c>
       <c r="F3">
-        <v>0.9710308030329902</v>
+        <v>1.033037426978079</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03634146465532</v>
+        <v>1.027601853828522</v>
       </c>
       <c r="J3">
-        <v>1.010276480225072</v>
+        <v>1.020074329994092</v>
       </c>
       <c r="K3">
-        <v>1.01899120417963</v>
+        <v>1.024242355375343</v>
       </c>
       <c r="L3">
-        <v>1.007784648132576</v>
+        <v>1.019534859168708</v>
       </c>
       <c r="M3">
-        <v>0.9820482786495612</v>
+        <v>1.035651990433393</v>
       </c>
       <c r="N3">
-        <v>1.007474929722787</v>
+        <v>1.010815673652995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9919014229934621</v>
+        <v>1.015724132009217</v>
       </c>
       <c r="D4">
-        <v>1.0101631539205</v>
+        <v>1.021966947392641</v>
       </c>
       <c r="E4">
-        <v>0.9989978255494608</v>
+        <v>1.017311995721368</v>
       </c>
       <c r="F4">
-        <v>0.9779055094546099</v>
+        <v>1.034383820087226</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037029917345563</v>
+        <v>1.027698209353829</v>
       </c>
       <c r="J4">
-        <v>1.011514584682271</v>
+        <v>1.020354314315732</v>
       </c>
       <c r="K4">
-        <v>1.020140446819794</v>
+        <v>1.024486926049972</v>
       </c>
       <c r="L4">
-        <v>1.009108361001664</v>
+        <v>1.019844157650965</v>
       </c>
       <c r="M4">
-        <v>0.9882781186121855</v>
+        <v>1.036871878821053</v>
       </c>
       <c r="N4">
-        <v>1.007891342318394</v>
+        <v>1.010909087338569</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9929019000310602</v>
+        <v>1.015941431482071</v>
       </c>
       <c r="D5">
-        <v>1.01086880607548</v>
+        <v>1.022122601710928</v>
       </c>
       <c r="E5">
-        <v>0.9997822182803283</v>
+        <v>1.017495377361008</v>
       </c>
       <c r="F5">
-        <v>0.980727609099221</v>
+        <v>1.034948583317503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03731148177232</v>
+        <v>1.027738329410394</v>
       </c>
       <c r="J5">
-        <v>1.012028581481228</v>
+        <v>1.020472001011011</v>
       </c>
       <c r="K5">
-        <v>1.020616444749544</v>
+        <v>1.02458961953598</v>
       </c>
       <c r="L5">
-        <v>1.00965860623946</v>
+        <v>1.019974236549201</v>
       </c>
       <c r="M5">
-        <v>0.9908337390829898</v>
+        <v>1.037383374693724</v>
       </c>
       <c r="N5">
-        <v>1.008064177544639</v>
+        <v>1.010948342444402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9930692481494118</v>
+        <v>1.015977924878406</v>
       </c>
       <c r="D6">
-        <v>1.010986826232249</v>
+        <v>1.022148739262417</v>
       </c>
       <c r="E6">
-        <v>0.999913503226267</v>
+        <v>1.017526180328978</v>
       </c>
       <c r="F6">
-        <v>0.9811976265318543</v>
+        <v>1.035043336478438</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037358307377954</v>
+        <v>1.027745043031227</v>
       </c>
       <c r="J6">
-        <v>1.01211450952123</v>
+        <v>1.020491760008001</v>
       </c>
       <c r="K6">
-        <v>1.0206959561628</v>
+        <v>1.024606854940642</v>
       </c>
       <c r="L6">
-        <v>1.00975063540231</v>
+        <v>1.019996080264428</v>
       </c>
       <c r="M6">
-        <v>0.9912592704354518</v>
+        <v>1.037469178999971</v>
       </c>
       <c r="N6">
-        <v>1.008093069179726</v>
+        <v>1.010954932602889</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9919148343168935</v>
+        <v>1.015727035048066</v>
       </c>
       <c r="D7">
-        <v>1.010172614031434</v>
+        <v>1.021969027084716</v>
       </c>
       <c r="E7">
-        <v>0.9990083348256695</v>
+        <v>1.017314445245098</v>
       </c>
       <c r="F7">
-        <v>0.9779434782700107</v>
+        <v>1.034391371398236</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037033710021029</v>
+        <v>1.02769874696263</v>
       </c>
       <c r="J7">
-        <v>1.011521477960162</v>
+        <v>1.020355886925507</v>
       </c>
       <c r="K7">
-        <v>1.020146834821536</v>
+        <v>1.024488298733174</v>
       </c>
       <c r="L7">
-        <v>1.009115737631205</v>
+        <v>1.019845895576938</v>
       </c>
       <c r="M7">
-        <v>0.9883125092050721</v>
+        <v>1.036878718706678</v>
       </c>
       <c r="N7">
-        <v>1.00789366038706</v>
+        <v>1.010909611930456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9869945304398279</v>
+        <v>1.014679501514761</v>
       </c>
       <c r="D8">
-        <v>1.006700201448549</v>
+        <v>1.021218228404856</v>
       </c>
       <c r="E8">
-        <v>0.9951624324896428</v>
+        <v>1.016431228714467</v>
       </c>
       <c r="F8">
-        <v>0.9637480759117429</v>
+        <v>1.031655488662263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03560917613719</v>
+        <v>1.027501943125076</v>
       </c>
       <c r="J8">
-        <v>1.008986839814616</v>
+        <v>1.019787802618121</v>
       </c>
       <c r="K8">
-        <v>1.017790172736052</v>
+        <v>1.023991701533587</v>
       </c>
       <c r="L8">
-        <v>1.006408332908492</v>
+        <v>1.019218573230526</v>
       </c>
       <c r="M8">
-        <v>0.9754425735044719</v>
+        <v>1.034399202035357</v>
       </c>
       <c r="N8">
-        <v>1.007041062089452</v>
+        <v>1.010720043787694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9779345969310743</v>
+        <v>1.012838001654482</v>
       </c>
       <c r="D9">
-        <v>1.000295497333972</v>
+        <v>1.019896672377978</v>
       </c>
       <c r="E9">
-        <v>0.988129090856637</v>
+        <v>1.014881767232265</v>
       </c>
       <c r="F9">
-        <v>0.9360299175649005</v>
+        <v>1.026791931409563</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032813614679824</v>
+        <v>1.027142666878613</v>
       </c>
       <c r="J9">
-        <v>1.004291347205257</v>
+        <v>1.018786216972606</v>
       </c>
       <c r="K9">
-        <v>1.013383782118647</v>
+        <v>1.023112691926727</v>
       </c>
       <c r="L9">
-        <v>1.001417746942984</v>
+        <v>1.018114810213214</v>
       </c>
       <c r="M9">
-        <v>0.9502537711917589</v>
+        <v>1.029984842608633</v>
       </c>
       <c r="N9">
-        <v>1.005460596584499</v>
+        <v>1.010385508447458</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9715983625639667</v>
+        <v>1.011613348243571</v>
       </c>
       <c r="D10">
-        <v>0.9958045032022185</v>
+        <v>1.019016656302753</v>
       </c>
       <c r="E10">
-        <v>0.9832446403920201</v>
+        <v>1.013853495659026</v>
       </c>
       <c r="F10">
-        <v>0.91515414606517</v>
+        <v>1.023519062421532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030721783023157</v>
+        <v>1.026894691458589</v>
       </c>
       <c r="J10">
-        <v>1.000985975345976</v>
+        <v>1.018118161656682</v>
       </c>
       <c r="K10">
-        <v>1.01024992408495</v>
+        <v>1.022524052391527</v>
       </c>
       <c r="L10">
-        <v>0.997923154580949</v>
+        <v>1.017380133154249</v>
       </c>
       <c r="M10">
-        <v>0.9312451875665059</v>
+        <v>1.027009854734637</v>
       </c>
       <c r="N10">
-        <v>1.004347585753188</v>
+        <v>1.01016216908785</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.968775330250108</v>
+        <v>1.011083787162032</v>
       </c>
       <c r="D11">
-        <v>0.9937991922342162</v>
+        <v>1.018635851297266</v>
       </c>
       <c r="E11">
-        <v>0.9810769529021544</v>
+        <v>1.013409374171168</v>
       </c>
       <c r="F11">
-        <v>0.9053688760526688</v>
+        <v>1.022094220216639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029751033524281</v>
+        <v>1.026785294036209</v>
       </c>
       <c r="J11">
-        <v>0.9995073629997568</v>
+        <v>1.017828815040235</v>
       </c>
       <c r="K11">
-        <v>1.008839001839407</v>
+        <v>1.022268543276516</v>
       </c>
       <c r="L11">
-        <v>0.9963647764605988</v>
+        <v>1.017062296202585</v>
       </c>
       <c r="M11">
-        <v>0.9223270209188453</v>
+        <v>1.025713652097465</v>
       </c>
       <c r="N11">
-        <v>1.003849647761547</v>
+        <v>1.010065388782473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9677138766784371</v>
+        <v>1.010887194026731</v>
       </c>
       <c r="D12">
-        <v>0.9930443336902949</v>
+        <v>1.018494441280972</v>
       </c>
       <c r="E12">
-        <v>0.980263210873116</v>
+        <v>1.013244578246248</v>
       </c>
       <c r="F12">
-        <v>0.9016018682539149</v>
+        <v>1.021563781804672</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029379474046886</v>
+        <v>1.02674435372838</v>
       </c>
       <c r="J12">
-        <v>0.9989504076481475</v>
+        <v>1.017721328210787</v>
       </c>
       <c r="K12">
-        <v>1.008306017667797</v>
+        <v>1.022173542168589</v>
       </c>
       <c r="L12">
-        <v>0.9957785634347296</v>
+        <v>1.016944280704375</v>
       </c>
       <c r="M12">
-        <v>0.9188927021235697</v>
+        <v>1.02523094686992</v>
       </c>
       <c r="N12">
-        <v>1.003662085830765</v>
+        <v>1.010029429543413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9679421603167007</v>
+        <v>1.010929358954317</v>
       </c>
       <c r="D13">
-        <v>0.9932067220722386</v>
+        <v>1.018524772482747</v>
       </c>
       <c r="E13">
-        <v>0.9804381607495359</v>
+        <v>1.013279919792719</v>
       </c>
       <c r="F13">
-        <v>0.9024162792146082</v>
+        <v>1.021677617022722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029459694751429</v>
+        <v>1.026753149398519</v>
       </c>
       <c r="J13">
-        <v>0.9990702377141065</v>
+        <v>1.017744384972276</v>
       </c>
       <c r="K13">
-        <v>1.008420762449098</v>
+        <v>1.022193924464245</v>
       </c>
       <c r="L13">
-        <v>0.9959046517176112</v>
+        <v>1.016969593457847</v>
       </c>
       <c r="M13">
-        <v>0.9196352354882847</v>
+        <v>1.025334545346605</v>
       </c>
       <c r="N13">
-        <v>1.003702440122305</v>
+        <v>1.010037143403989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9686878582895054</v>
+        <v>1.011067534474274</v>
       </c>
       <c r="D14">
-        <v>0.9937370051125011</v>
+        <v>1.01862416152377</v>
       </c>
       <c r="E14">
-        <v>0.9810098676859422</v>
+        <v>1.013395748601757</v>
       </c>
       <c r="F14">
-        <v>0.9050603306331985</v>
+        <v>1.022050398472011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029720552475921</v>
+        <v>1.026781916132431</v>
       </c>
       <c r="J14">
-        <v>0.9994614866731225</v>
+        <v>1.017819930358799</v>
       </c>
       <c r="K14">
-        <v>1.008795132153605</v>
+        <v>1.022260692364869</v>
       </c>
       <c r="L14">
-        <v>0.9963164738111228</v>
+        <v>1.017052540117036</v>
       </c>
       <c r="M14">
-        <v>0.9220457469955161</v>
+        <v>1.025673776983174</v>
       </c>
       <c r="N14">
-        <v>1.003834198307622</v>
+        <v>1.010062416598043</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.969145573857734</v>
+        <v>1.011152683501612</v>
       </c>
       <c r="D15">
-        <v>0.9940623756951696</v>
+        <v>1.018685403437026</v>
       </c>
       <c r="E15">
-        <v>0.9813609585310669</v>
+        <v>1.013467137193669</v>
       </c>
       <c r="F15">
-        <v>0.9066711831141933</v>
+        <v>1.022279922825819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029879778759369</v>
+        <v>1.026799599778013</v>
       </c>
       <c r="J15">
-        <v>0.9997015027601366</v>
+        <v>1.01786647497441</v>
       </c>
       <c r="K15">
-        <v>1.009024586615312</v>
+        <v>1.022301817867132</v>
       </c>
       <c r="L15">
-        <v>0.9965692164048339</v>
+        <v>1.017103652051446</v>
       </c>
       <c r="M15">
-        <v>0.9235141761711819</v>
+        <v>1.025882623736908</v>
       </c>
       <c r="N15">
-        <v>1.003915026845854</v>
+        <v>1.010077986832592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9717839695490612</v>
+        <v>1.011648508761574</v>
       </c>
       <c r="D16">
-        <v>0.9959362397100531</v>
+        <v>1.019041934356778</v>
       </c>
       <c r="E16">
-        <v>0.9833873397268356</v>
+        <v>1.013882994390362</v>
       </c>
       <c r="F16">
-        <v>0.9157862383721896</v>
+        <v>1.023613459842174</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030784742429265</v>
+        <v>1.026901909077366</v>
       </c>
       <c r="J16">
-        <v>1.001083058187242</v>
+        <v>1.018137363120905</v>
       </c>
       <c r="K16">
-        <v>1.010342361530614</v>
+        <v>1.022540996549757</v>
       </c>
       <c r="L16">
-        <v>0.9980255804629325</v>
+        <v>1.017401232975864</v>
       </c>
       <c r="M16">
-        <v>0.9318211106560063</v>
+        <v>1.027095707719785</v>
       </c>
       <c r="N16">
-        <v>1.004380278872043</v>
+        <v>1.01016859056173</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9734171007274978</v>
+        <v>1.011959720814994</v>
       </c>
       <c r="D17">
-        <v>0.9970948540209199</v>
+        <v>1.019265643614679</v>
       </c>
       <c r="E17">
-        <v>0.9846439052636993</v>
+        <v>1.014144153223269</v>
       </c>
       <c r="F17">
-        <v>0.9212914727552011</v>
+        <v>1.024447873781138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031334238243871</v>
+        <v>1.026965542567823</v>
       </c>
       <c r="J17">
-        <v>1.001936592145587</v>
+        <v>1.01830726460604</v>
       </c>
       <c r="K17">
-        <v>1.011154013434747</v>
+        <v>1.022690859984938</v>
       </c>
       <c r="L17">
-        <v>0.9989266484493675</v>
+        <v>1.017587973959977</v>
       </c>
       <c r="M17">
-        <v>0.9368362479450303</v>
+        <v>1.027854474089862</v>
       </c>
       <c r="N17">
-        <v>1.00466770574096</v>
+        <v>1.01022540453422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9743620869785901</v>
+        <v>1.012141315132708</v>
       </c>
       <c r="D18">
-        <v>0.9977648673317536</v>
+        <v>1.019396153301059</v>
       </c>
       <c r="E18">
-        <v>0.9853718044168525</v>
+        <v>1.014296591397033</v>
       </c>
       <c r="F18">
-        <v>0.9244322225493515</v>
+        <v>1.024933835927349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031648577053656</v>
+        <v>1.027002463866998</v>
       </c>
       <c r="J18">
-        <v>1.002429921399718</v>
+        <v>1.018406358068182</v>
       </c>
       <c r="K18">
-        <v>1.011622293934145</v>
+        <v>1.022778212546049</v>
       </c>
       <c r="L18">
-        <v>0.9994479090529017</v>
+        <v>1.017696924077793</v>
       </c>
       <c r="M18">
-        <v>0.9396966423744629</v>
+        <v>1.028296278835597</v>
       </c>
       <c r="N18">
-        <v>1.00483382901294</v>
+        <v>1.010258536115762</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.974683040886042</v>
+        <v>1.01220324587628</v>
       </c>
       <c r="D19">
-        <v>0.9979923667923198</v>
+        <v>1.01944065775687</v>
       </c>
       <c r="E19">
-        <v>0.9856191632117101</v>
+        <v>1.014348587263929</v>
       </c>
       <c r="F19">
-        <v>0.925491733777735</v>
+        <v>1.025099412482374</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031754743675247</v>
+        <v>1.027015020035162</v>
       </c>
       <c r="J19">
-        <v>1.002597383595869</v>
+        <v>1.018440145139796</v>
       </c>
       <c r="K19">
-        <v>1.011781114776982</v>
+        <v>1.022807987288206</v>
       </c>
       <c r="L19">
-        <v>0.9996249288082598</v>
+        <v>1.017734077852539</v>
       </c>
       <c r="M19">
-        <v>0.9406614471408824</v>
+        <v>1.02844679310756</v>
       </c>
       <c r="N19">
-        <v>1.004890219091109</v>
+        <v>1.01026983192647</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9732426726351153</v>
+        <v>1.01192632350185</v>
       </c>
       <c r="D20">
-        <v>0.9969711499945679</v>
+        <v>1.019241639255446</v>
       </c>
       <c r="E20">
-        <v>0.9845096127184126</v>
+        <v>1.014116122105359</v>
       </c>
       <c r="F20">
-        <v>0.9207082202831891</v>
+        <v>1.02435842559609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031275928866049</v>
+        <v>1.026958735480329</v>
       </c>
       <c r="J20">
-        <v>1.001845487897166</v>
+        <v>1.01828903652545</v>
       </c>
       <c r="K20">
-        <v>1.011067467984881</v>
+        <v>1.022674787287032</v>
       </c>
       <c r="L20">
-        <v>0.9988304227014584</v>
+        <v>1.017567935594435</v>
       </c>
       <c r="M20">
-        <v>0.9363049968437563</v>
+        <v>1.027773145615001</v>
       </c>
       <c r="N20">
-        <v>1.004637026935101</v>
+        <v>1.010219309659986</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9684686318666644</v>
+        <v>1.011026842199099</v>
       </c>
       <c r="D21">
-        <v>0.9935811339846623</v>
+        <v>1.018594892876223</v>
       </c>
       <c r="E21">
-        <v>0.9808417565595828</v>
+        <v>1.013361635185783</v>
       </c>
       <c r="F21">
-        <v>0.9042855670312924</v>
+        <v>1.021940656733222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029644050861247</v>
+        <v>1.026773453483559</v>
       </c>
       <c r="J21">
-        <v>0.9993464926725392</v>
+        <v>1.017797684414071</v>
       </c>
       <c r="K21">
-        <v>1.008685142787809</v>
+        <v>1.022241033466281</v>
       </c>
       <c r="L21">
-        <v>0.9961954108681031</v>
+        <v>1.017028113191966</v>
       </c>
       <c r="M21">
-        <v>0.9213394451675687</v>
+        <v>1.025573916167745</v>
       </c>
       <c r="N21">
-        <v>1.00379547256924</v>
+        <v>1.010054974566571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9653920507884152</v>
+        <v>1.010461936195346</v>
       </c>
       <c r="D22">
-        <v>0.9913912637196644</v>
+        <v>1.018188477464799</v>
       </c>
       <c r="E22">
-        <v>0.9784856459653311</v>
+        <v>1.01288824679529</v>
       </c>
       <c r="F22">
-        <v>0.8931797971422883</v>
+        <v>1.020413614220084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028553635324433</v>
+        <v>1.026655192634252</v>
       </c>
       <c r="J22">
-        <v>0.9977301255065907</v>
+        <v>1.017488690694026</v>
       </c>
       <c r="K22">
-        <v>1.007135212393361</v>
+        <v>1.021967773473415</v>
       </c>
       <c r="L22">
-        <v>0.9944957035913214</v>
+        <v>1.016688956297232</v>
       </c>
       <c r="M22">
-        <v>0.9112125023560109</v>
+        <v>1.024183994236191</v>
       </c>
       <c r="N22">
-        <v>1.003251144502639</v>
+        <v>1.009951588630154</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9670304623251396</v>
+        <v>1.010761343179222</v>
       </c>
       <c r="D23">
-        <v>0.9925580433052649</v>
+        <v>1.018403904913134</v>
       </c>
       <c r="E23">
-        <v>0.9797396545488042</v>
+        <v>1.013139104916922</v>
       </c>
       <c r="F23">
-        <v>0.8991494889643352</v>
+        <v>1.021223794288868</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02913828575725</v>
+        <v>1.026718052883385</v>
       </c>
       <c r="J23">
-        <v>0.9985915142879432</v>
+        <v>1.017652499729762</v>
       </c>
       <c r="K23">
-        <v>1.007962115229419</v>
+        <v>1.022112685073276</v>
       </c>
       <c r="L23">
-        <v>0.9954010471864251</v>
+        <v>1.016868725750584</v>
       </c>
       <c r="M23">
-        <v>0.9166566085543832</v>
+        <v>1.024921510134177</v>
       </c>
       <c r="N23">
-        <v>1.003541224228613</v>
+        <v>1.010006401268262</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9733215125751639</v>
+        <v>1.011941414095561</v>
       </c>
       <c r="D24">
-        <v>0.99702706433885</v>
+        <v>1.019252485718773</v>
       </c>
       <c r="E24">
-        <v>0.9845703092497837</v>
+        <v>1.014128787825695</v>
       </c>
       <c r="F24">
-        <v>0.920971982932612</v>
+        <v>1.024398845657799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03130229535125</v>
+        <v>1.026961811912871</v>
       </c>
       <c r="J24">
-        <v>1.00188666791732</v>
+        <v>1.01829727303299</v>
       </c>
       <c r="K24">
-        <v>1.011106589981749</v>
+        <v>1.02268205003378</v>
       </c>
       <c r="L24">
-        <v>0.9988739162749123</v>
+        <v>1.017576989985371</v>
       </c>
       <c r="M24">
-        <v>0.9365452454154414</v>
+        <v>1.027809896832652</v>
       </c>
       <c r="N24">
-        <v>1.004650894074168</v>
+        <v>1.01022206369318</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803262751962033</v>
+        <v>1.013313546977621</v>
       </c>
       <c r="D25">
-        <v>1.001987856619186</v>
+        <v>1.020238149729048</v>
       </c>
       <c r="E25">
-        <v>0.9899799665187013</v>
+        <v>1.015281516912618</v>
       </c>
       <c r="F25">
-        <v>0.9435685156434029</v>
+        <v>1.028054514175349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033573462536469</v>
+        <v>1.027237034275327</v>
       </c>
       <c r="J25">
-        <v>1.005534375843496</v>
+        <v>1.019045211983765</v>
       </c>
       <c r="K25">
-        <v>1.014555391853282</v>
+        <v>1.023340402269977</v>
       </c>
       <c r="L25">
-        <v>1.002735847965317</v>
+        <v>1.018399957652103</v>
       </c>
       <c r="M25">
-        <v>0.9571109467806898</v>
+        <v>1.031131585945647</v>
       </c>
       <c r="N25">
-        <v>1.005879084818555</v>
+        <v>1.010472050595858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014410119015922</v>
+        <v>0.9857025224122714</v>
       </c>
       <c r="D2">
-        <v>1.021025038497922</v>
+        <v>1.00578778042512</v>
       </c>
       <c r="E2">
-        <v>1.016204316641466</v>
+        <v>0.9941556971036415</v>
       </c>
       <c r="F2">
-        <v>1.030948338201141</v>
+        <v>0.9599275389639007</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027450432843899</v>
+        <v>1.035224186900402</v>
       </c>
       <c r="J2">
-        <v>1.019641515837839</v>
+        <v>1.008319443269186</v>
       </c>
       <c r="K2">
-        <v>1.023863588861564</v>
+        <v>1.017167066907213</v>
       </c>
       <c r="L2">
-        <v>1.019057185547152</v>
+        <v>1.00569705733181</v>
       </c>
       <c r="M2">
-        <v>1.033757872672202</v>
+        <v>0.9719748924174917</v>
       </c>
       <c r="N2">
-        <v>1.010671207227263</v>
+        <v>1.006816489973039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015207564669389</v>
+        <v>0.9894952914017073</v>
       </c>
       <c r="D3">
-        <v>1.021596797218632</v>
+        <v>1.008465507225557</v>
       </c>
       <c r="E3">
-        <v>1.016876292130557</v>
+        <v>0.9971147159509646</v>
       </c>
       <c r="F3">
-        <v>1.033037426978079</v>
+        <v>0.9710308030329897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027601853828522</v>
+        <v>1.03634146465532</v>
       </c>
       <c r="J3">
-        <v>1.020074329994092</v>
+        <v>1.010276480225072</v>
       </c>
       <c r="K3">
-        <v>1.024242355375343</v>
+        <v>1.018991204179631</v>
       </c>
       <c r="L3">
-        <v>1.019534859168708</v>
+        <v>1.007784648132576</v>
       </c>
       <c r="M3">
-        <v>1.035651990433393</v>
+        <v>0.982048278649561</v>
       </c>
       <c r="N3">
-        <v>1.010815673652995</v>
+        <v>1.007474929722787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015724132009217</v>
+        <v>0.9919014229934616</v>
       </c>
       <c r="D4">
-        <v>1.021966947392641</v>
+        <v>1.0101631539205</v>
       </c>
       <c r="E4">
-        <v>1.017311995721368</v>
+        <v>0.9989978255494604</v>
       </c>
       <c r="F4">
-        <v>1.034383820087226</v>
+        <v>0.9779055094546105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027698209353829</v>
+        <v>1.037029917345563</v>
       </c>
       <c r="J4">
-        <v>1.020354314315732</v>
+        <v>1.01151458468227</v>
       </c>
       <c r="K4">
-        <v>1.024486926049972</v>
+        <v>1.020140446819793</v>
       </c>
       <c r="L4">
-        <v>1.019844157650965</v>
+        <v>1.009108361001664</v>
       </c>
       <c r="M4">
-        <v>1.036871878821053</v>
+        <v>0.9882781186121862</v>
       </c>
       <c r="N4">
-        <v>1.010909087338569</v>
+        <v>1.007891342318394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015941431482071</v>
+        <v>0.9929019000310593</v>
       </c>
       <c r="D5">
-        <v>1.022122601710928</v>
+        <v>1.010868806075479</v>
       </c>
       <c r="E5">
-        <v>1.017495377361008</v>
+        <v>0.9997822182803273</v>
       </c>
       <c r="F5">
-        <v>1.034948583317503</v>
+        <v>0.9807276090992202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027738329410394</v>
+        <v>1.03731148177232</v>
       </c>
       <c r="J5">
-        <v>1.020472001011011</v>
+        <v>1.012028581481227</v>
       </c>
       <c r="K5">
-        <v>1.02458961953598</v>
+        <v>1.020616444749544</v>
       </c>
       <c r="L5">
-        <v>1.019974236549201</v>
+        <v>1.009658606239459</v>
       </c>
       <c r="M5">
-        <v>1.037383374693724</v>
+        <v>0.990833739082989</v>
       </c>
       <c r="N5">
-        <v>1.010948342444402</v>
+        <v>1.008064177544639</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015977924878406</v>
+        <v>0.9930692481494118</v>
       </c>
       <c r="D6">
-        <v>1.022148739262417</v>
+        <v>1.010986826232249</v>
       </c>
       <c r="E6">
-        <v>1.017526180328978</v>
+        <v>0.9999135032262666</v>
       </c>
       <c r="F6">
-        <v>1.035043336478438</v>
+        <v>0.9811976265318541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027745043031227</v>
+        <v>1.037358307377954</v>
       </c>
       <c r="J6">
-        <v>1.020491760008001</v>
+        <v>1.01211450952123</v>
       </c>
       <c r="K6">
-        <v>1.024606854940642</v>
+        <v>1.0206959561628</v>
       </c>
       <c r="L6">
-        <v>1.019996080264428</v>
+        <v>1.009750635402309</v>
       </c>
       <c r="M6">
-        <v>1.037469178999971</v>
+        <v>0.9912592704354515</v>
       </c>
       <c r="N6">
-        <v>1.010954932602889</v>
+        <v>1.008093069179726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015727035048066</v>
+        <v>0.9919148343168933</v>
       </c>
       <c r="D7">
-        <v>1.021969027084716</v>
+        <v>1.010172614031434</v>
       </c>
       <c r="E7">
-        <v>1.017314445245098</v>
+        <v>0.9990083348256694</v>
       </c>
       <c r="F7">
-        <v>1.034391371398236</v>
+        <v>0.9779434782700108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02769874696263</v>
+        <v>1.037033710021029</v>
       </c>
       <c r="J7">
-        <v>1.020355886925507</v>
+        <v>1.011521477960162</v>
       </c>
       <c r="K7">
-        <v>1.024488298733174</v>
+        <v>1.020146834821536</v>
       </c>
       <c r="L7">
-        <v>1.019845895576938</v>
+        <v>1.009115737631205</v>
       </c>
       <c r="M7">
-        <v>1.036878718706678</v>
+        <v>0.9883125092050722</v>
       </c>
       <c r="N7">
-        <v>1.010909611930456</v>
+        <v>1.00789366038706</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014679501514761</v>
+        <v>0.9869945304398281</v>
       </c>
       <c r="D8">
-        <v>1.021218228404856</v>
+        <v>1.006700201448549</v>
       </c>
       <c r="E8">
-        <v>1.016431228714467</v>
+        <v>0.9951624324896424</v>
       </c>
       <c r="F8">
-        <v>1.031655488662263</v>
+        <v>0.9637480759117433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027501943125076</v>
+        <v>1.03560917613719</v>
       </c>
       <c r="J8">
-        <v>1.019787802618121</v>
+        <v>1.008986839814616</v>
       </c>
       <c r="K8">
-        <v>1.023991701533587</v>
+        <v>1.017790172736052</v>
       </c>
       <c r="L8">
-        <v>1.019218573230526</v>
+        <v>1.006408332908492</v>
       </c>
       <c r="M8">
-        <v>1.034399202035357</v>
+        <v>0.9754425735044721</v>
       </c>
       <c r="N8">
-        <v>1.010720043787694</v>
+        <v>1.007041062089452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012838001654482</v>
+        <v>0.9779345969310743</v>
       </c>
       <c r="D9">
-        <v>1.019896672377978</v>
+        <v>1.000295497333972</v>
       </c>
       <c r="E9">
-        <v>1.014881767232265</v>
+        <v>0.9881290908566366</v>
       </c>
       <c r="F9">
-        <v>1.026791931409563</v>
+        <v>0.9360299175648996</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027142666878613</v>
+        <v>1.032813614679824</v>
       </c>
       <c r="J9">
-        <v>1.018786216972606</v>
+        <v>1.004291347205257</v>
       </c>
       <c r="K9">
-        <v>1.023112691926727</v>
+        <v>1.013383782118646</v>
       </c>
       <c r="L9">
-        <v>1.018114810213214</v>
+        <v>1.001417746942984</v>
       </c>
       <c r="M9">
-        <v>1.029984842608633</v>
+        <v>0.9502537711917579</v>
       </c>
       <c r="N9">
-        <v>1.010385508447458</v>
+        <v>1.005460596584499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011613348243571</v>
+        <v>0.9715983625639663</v>
       </c>
       <c r="D10">
-        <v>1.019016656302753</v>
+        <v>0.9958045032022179</v>
       </c>
       <c r="E10">
-        <v>1.013853495659026</v>
+        <v>0.98324464039202</v>
       </c>
       <c r="F10">
-        <v>1.023519062421532</v>
+        <v>0.9151541460651702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026894691458589</v>
+        <v>1.030721783023157</v>
       </c>
       <c r="J10">
-        <v>1.018118161656682</v>
+        <v>1.000985975345976</v>
       </c>
       <c r="K10">
-        <v>1.022524052391527</v>
+        <v>1.01024992408495</v>
       </c>
       <c r="L10">
-        <v>1.017380133154249</v>
+        <v>0.9979231545809488</v>
       </c>
       <c r="M10">
-        <v>1.027009854734637</v>
+        <v>0.931245187566506</v>
       </c>
       <c r="N10">
-        <v>1.01016216908785</v>
+        <v>1.004347585753188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011083787162032</v>
+        <v>0.9687753302501075</v>
       </c>
       <c r="D11">
-        <v>1.018635851297266</v>
+        <v>0.993799192234216</v>
       </c>
       <c r="E11">
-        <v>1.013409374171168</v>
+        <v>0.9810769529021539</v>
       </c>
       <c r="F11">
-        <v>1.022094220216639</v>
+        <v>0.9053688760526694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026785294036209</v>
+        <v>1.029751033524281</v>
       </c>
       <c r="J11">
-        <v>1.017828815040235</v>
+        <v>0.9995073629997563</v>
       </c>
       <c r="K11">
-        <v>1.022268543276516</v>
+        <v>1.008839001839406</v>
       </c>
       <c r="L11">
-        <v>1.017062296202585</v>
+        <v>0.9963647764605983</v>
       </c>
       <c r="M11">
-        <v>1.025713652097465</v>
+        <v>0.9223270209188458</v>
       </c>
       <c r="N11">
-        <v>1.010065388782473</v>
+        <v>1.003849647761547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010887194026731</v>
+        <v>0.9677138766784373</v>
       </c>
       <c r="D12">
-        <v>1.018494441280972</v>
+        <v>0.993044333690295</v>
       </c>
       <c r="E12">
-        <v>1.013244578246248</v>
+        <v>0.9802632108731162</v>
       </c>
       <c r="F12">
-        <v>1.021563781804672</v>
+        <v>0.9016018682539142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02674435372838</v>
+        <v>1.029379474046886</v>
       </c>
       <c r="J12">
-        <v>1.017721328210787</v>
+        <v>0.9989504076481478</v>
       </c>
       <c r="K12">
-        <v>1.022173542168589</v>
+        <v>1.008306017667798</v>
       </c>
       <c r="L12">
-        <v>1.016944280704375</v>
+        <v>0.9957785634347297</v>
       </c>
       <c r="M12">
-        <v>1.02523094686992</v>
+        <v>0.918892702123569</v>
       </c>
       <c r="N12">
-        <v>1.010029429543413</v>
+        <v>1.003662085830765</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010929358954317</v>
+        <v>0.9679421603167004</v>
       </c>
       <c r="D13">
-        <v>1.018524772482747</v>
+        <v>0.9932067220722384</v>
       </c>
       <c r="E13">
-        <v>1.013279919792719</v>
+        <v>0.9804381607495356</v>
       </c>
       <c r="F13">
-        <v>1.021677617022722</v>
+        <v>0.9024162792146087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026753149398519</v>
+        <v>1.029459694751429</v>
       </c>
       <c r="J13">
-        <v>1.017744384972276</v>
+        <v>0.9990702377141062</v>
       </c>
       <c r="K13">
-        <v>1.022193924464245</v>
+        <v>1.008420762449098</v>
       </c>
       <c r="L13">
-        <v>1.016969593457847</v>
+        <v>0.9959046517176109</v>
       </c>
       <c r="M13">
-        <v>1.025334545346605</v>
+        <v>0.9196352354882851</v>
       </c>
       <c r="N13">
-        <v>1.010037143403989</v>
+        <v>1.003702440122305</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011067534474274</v>
+        <v>0.9686878582895054</v>
       </c>
       <c r="D14">
-        <v>1.01862416152377</v>
+        <v>0.9937370051125008</v>
       </c>
       <c r="E14">
-        <v>1.013395748601757</v>
+        <v>0.9810098676859421</v>
       </c>
       <c r="F14">
-        <v>1.022050398472011</v>
+        <v>0.9050603306331982</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026781916132431</v>
+        <v>1.029720552475921</v>
       </c>
       <c r="J14">
-        <v>1.017819930358799</v>
+        <v>0.9994614866731224</v>
       </c>
       <c r="K14">
-        <v>1.022260692364869</v>
+        <v>1.008795132153605</v>
       </c>
       <c r="L14">
-        <v>1.017052540117036</v>
+        <v>0.9963164738111226</v>
       </c>
       <c r="M14">
-        <v>1.025673776983174</v>
+        <v>0.922045746995516</v>
       </c>
       <c r="N14">
-        <v>1.010062416598043</v>
+        <v>1.003834198307622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011152683501612</v>
+        <v>0.9691455738577346</v>
       </c>
       <c r="D15">
-        <v>1.018685403437026</v>
+        <v>0.9940623756951701</v>
       </c>
       <c r="E15">
-        <v>1.013467137193669</v>
+        <v>0.9813609585310671</v>
       </c>
       <c r="F15">
-        <v>1.022279922825819</v>
+        <v>0.9066711831141928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026799599778013</v>
+        <v>1.029879778759369</v>
       </c>
       <c r="J15">
-        <v>1.01786647497441</v>
+        <v>0.999701502760137</v>
       </c>
       <c r="K15">
-        <v>1.022301817867132</v>
+        <v>1.009024586615312</v>
       </c>
       <c r="L15">
-        <v>1.017103652051446</v>
+        <v>0.9965692164048342</v>
       </c>
       <c r="M15">
-        <v>1.025882623736908</v>
+        <v>0.9235141761711814</v>
       </c>
       <c r="N15">
-        <v>1.010077986832592</v>
+        <v>1.003915026845854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011648508761574</v>
+        <v>0.9717839695490611</v>
       </c>
       <c r="D16">
-        <v>1.019041934356778</v>
+        <v>0.9959362397100531</v>
       </c>
       <c r="E16">
-        <v>1.013882994390362</v>
+        <v>0.9833873397268355</v>
       </c>
       <c r="F16">
-        <v>1.023613459842174</v>
+        <v>0.9157862383721891</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026901909077366</v>
+        <v>1.030784742429265</v>
       </c>
       <c r="J16">
-        <v>1.018137363120905</v>
+        <v>1.001083058187242</v>
       </c>
       <c r="K16">
-        <v>1.022540996549757</v>
+        <v>1.010342361530614</v>
       </c>
       <c r="L16">
-        <v>1.017401232975864</v>
+        <v>0.9980255804629325</v>
       </c>
       <c r="M16">
-        <v>1.027095707719785</v>
+        <v>0.9318211106560058</v>
       </c>
       <c r="N16">
-        <v>1.01016859056173</v>
+        <v>1.004380278872043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011959720814994</v>
+        <v>0.9734171007274981</v>
       </c>
       <c r="D17">
-        <v>1.019265643614679</v>
+        <v>0.9970948540209202</v>
       </c>
       <c r="E17">
-        <v>1.014144153223269</v>
+        <v>0.9846439052636994</v>
       </c>
       <c r="F17">
-        <v>1.024447873781138</v>
+        <v>0.9212914727552013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026965542567823</v>
+        <v>1.031334238243871</v>
       </c>
       <c r="J17">
-        <v>1.01830726460604</v>
+        <v>1.001936592145587</v>
       </c>
       <c r="K17">
-        <v>1.022690859984938</v>
+        <v>1.011154013434747</v>
       </c>
       <c r="L17">
-        <v>1.017587973959977</v>
+        <v>0.9989266484493676</v>
       </c>
       <c r="M17">
-        <v>1.027854474089862</v>
+        <v>0.9368362479450304</v>
       </c>
       <c r="N17">
-        <v>1.01022540453422</v>
+        <v>1.00466770574096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012141315132708</v>
+        <v>0.9743620869785897</v>
       </c>
       <c r="D18">
-        <v>1.019396153301059</v>
+        <v>0.9977648673317532</v>
       </c>
       <c r="E18">
-        <v>1.014296591397033</v>
+        <v>0.9853718044168521</v>
       </c>
       <c r="F18">
-        <v>1.024933835927349</v>
+        <v>0.9244322225493519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027002463866998</v>
+        <v>1.031648577053656</v>
       </c>
       <c r="J18">
-        <v>1.018406358068182</v>
+        <v>1.002429921399717</v>
       </c>
       <c r="K18">
-        <v>1.022778212546049</v>
+        <v>1.011622293934145</v>
       </c>
       <c r="L18">
-        <v>1.017696924077793</v>
+        <v>0.9994479090529014</v>
       </c>
       <c r="M18">
-        <v>1.028296278835597</v>
+        <v>0.9396966423744634</v>
       </c>
       <c r="N18">
-        <v>1.010258536115762</v>
+        <v>1.00483382901294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01220324587628</v>
+        <v>0.9746830408860423</v>
       </c>
       <c r="D19">
-        <v>1.01944065775687</v>
+        <v>0.9979923667923202</v>
       </c>
       <c r="E19">
-        <v>1.014348587263929</v>
+        <v>0.9856191632117104</v>
       </c>
       <c r="F19">
-        <v>1.025099412482374</v>
+        <v>0.9254917337777341</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027015020035162</v>
+        <v>1.031754743675247</v>
       </c>
       <c r="J19">
-        <v>1.018440145139796</v>
+        <v>1.002597383595869</v>
       </c>
       <c r="K19">
-        <v>1.022807987288206</v>
+        <v>1.011781114776982</v>
       </c>
       <c r="L19">
-        <v>1.017734077852539</v>
+        <v>0.9996249288082601</v>
       </c>
       <c r="M19">
-        <v>1.02844679310756</v>
+        <v>0.9406614471408817</v>
       </c>
       <c r="N19">
-        <v>1.01026983192647</v>
+        <v>1.004890219091109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01192632350185</v>
+        <v>0.9732426726351158</v>
       </c>
       <c r="D20">
-        <v>1.019241639255446</v>
+        <v>0.9969711499945684</v>
       </c>
       <c r="E20">
-        <v>1.014116122105359</v>
+        <v>0.984509612718413</v>
       </c>
       <c r="F20">
-        <v>1.02435842559609</v>
+        <v>0.9207082202831894</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026958735480329</v>
+        <v>1.031275928866049</v>
       </c>
       <c r="J20">
-        <v>1.01828903652545</v>
+        <v>1.001845487897166</v>
       </c>
       <c r="K20">
-        <v>1.022674787287032</v>
+        <v>1.011067467984881</v>
       </c>
       <c r="L20">
-        <v>1.017567935594435</v>
+        <v>0.9988304227014587</v>
       </c>
       <c r="M20">
-        <v>1.027773145615001</v>
+        <v>0.9363049968437567</v>
       </c>
       <c r="N20">
-        <v>1.010219309659986</v>
+        <v>1.004637026935101</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011026842199099</v>
+        <v>0.968468631866665</v>
       </c>
       <c r="D21">
-        <v>1.018594892876223</v>
+        <v>0.993581133984663</v>
       </c>
       <c r="E21">
-        <v>1.013361635185783</v>
+        <v>0.9808417565595835</v>
       </c>
       <c r="F21">
-        <v>1.021940656733222</v>
+        <v>0.9042855670312918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026773453483559</v>
+        <v>1.029644050861247</v>
       </c>
       <c r="J21">
-        <v>1.017797684414071</v>
+        <v>0.9993464926725397</v>
       </c>
       <c r="K21">
-        <v>1.022241033466281</v>
+        <v>1.00868514278781</v>
       </c>
       <c r="L21">
-        <v>1.017028113191966</v>
+        <v>0.9961954108681038</v>
       </c>
       <c r="M21">
-        <v>1.025573916167745</v>
+        <v>0.921339445167568</v>
       </c>
       <c r="N21">
-        <v>1.010054974566571</v>
+        <v>1.00379547256924</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010461936195346</v>
+        <v>0.9653920507884153</v>
       </c>
       <c r="D22">
-        <v>1.018188477464799</v>
+        <v>0.9913912637196646</v>
       </c>
       <c r="E22">
-        <v>1.01288824679529</v>
+        <v>0.9784856459653311</v>
       </c>
       <c r="F22">
-        <v>1.020413614220084</v>
+        <v>0.8931797971422892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026655192634252</v>
+        <v>1.028553635324433</v>
       </c>
       <c r="J22">
-        <v>1.017488690694026</v>
+        <v>0.9977301255065908</v>
       </c>
       <c r="K22">
-        <v>1.021967773473415</v>
+        <v>1.007135212393361</v>
       </c>
       <c r="L22">
-        <v>1.016688956297232</v>
+        <v>0.9944957035913216</v>
       </c>
       <c r="M22">
-        <v>1.024183994236191</v>
+        <v>0.9112125023560117</v>
       </c>
       <c r="N22">
-        <v>1.009951588630154</v>
+        <v>1.003251144502639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010761343179222</v>
+        <v>0.9670304623251391</v>
       </c>
       <c r="D23">
-        <v>1.018403904913134</v>
+        <v>0.9925580433052645</v>
       </c>
       <c r="E23">
-        <v>1.013139104916922</v>
+        <v>0.9797396545488037</v>
       </c>
       <c r="F23">
-        <v>1.021223794288868</v>
+        <v>0.8991494889643353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026718052883385</v>
+        <v>1.029138285757249</v>
       </c>
       <c r="J23">
-        <v>1.017652499729762</v>
+        <v>0.9985915142879428</v>
       </c>
       <c r="K23">
-        <v>1.022112685073276</v>
+        <v>1.007962115229418</v>
       </c>
       <c r="L23">
-        <v>1.016868725750584</v>
+        <v>0.9954010471864244</v>
       </c>
       <c r="M23">
-        <v>1.024921510134177</v>
+        <v>0.9166566085543834</v>
       </c>
       <c r="N23">
-        <v>1.010006401268262</v>
+        <v>1.003541224228613</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011941414095561</v>
+        <v>0.9733215125751642</v>
       </c>
       <c r="D24">
-        <v>1.019252485718773</v>
+        <v>0.9970270643388504</v>
       </c>
       <c r="E24">
-        <v>1.014128787825695</v>
+        <v>0.9845703092497837</v>
       </c>
       <c r="F24">
-        <v>1.024398845657799</v>
+        <v>0.9209719829326128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026961811912871</v>
+        <v>1.031302295351251</v>
       </c>
       <c r="J24">
-        <v>1.01829727303299</v>
+        <v>1.00188666791732</v>
       </c>
       <c r="K24">
-        <v>1.02268205003378</v>
+        <v>1.011106589981749</v>
       </c>
       <c r="L24">
-        <v>1.017576989985371</v>
+        <v>0.9988739162749123</v>
       </c>
       <c r="M24">
-        <v>1.027809896832652</v>
+        <v>0.9365452454154422</v>
       </c>
       <c r="N24">
-        <v>1.01022206369318</v>
+        <v>1.004650894074168</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013313546977621</v>
+        <v>0.9803262751962042</v>
       </c>
       <c r="D25">
-        <v>1.020238149729048</v>
+        <v>1.001987856619187</v>
       </c>
       <c r="E25">
-        <v>1.015281516912618</v>
+        <v>0.9899799665187023</v>
       </c>
       <c r="F25">
-        <v>1.028054514175349</v>
+        <v>0.9435685156434045</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027237034275327</v>
+        <v>1.03357346253647</v>
       </c>
       <c r="J25">
-        <v>1.019045211983765</v>
+        <v>1.005534375843498</v>
       </c>
       <c r="K25">
-        <v>1.023340402269977</v>
+        <v>1.014555391853283</v>
       </c>
       <c r="L25">
-        <v>1.018399957652103</v>
+        <v>1.002735847965318</v>
       </c>
       <c r="M25">
-        <v>1.031131585945647</v>
+        <v>0.9571109467806913</v>
       </c>
       <c r="N25">
-        <v>1.010472050595858</v>
+        <v>1.005879084818556</v>
       </c>
     </row>
   </sheetData>
